--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/20/seed4/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.290000000000001</v>
+        <v>-7.833</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.588000000000001</v>
+        <v>-7.757</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.366</v>
+        <v>-7.961</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.766</v>
+        <v>13.045</v>
       </c>
     </row>
     <row r="8">
@@ -587,13 +587,13 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.082</v>
+        <v>-11.899</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.832</v>
+        <v>12.659</v>
       </c>
     </row>
     <row r="10">
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.422000000000001</v>
+        <v>-7.699</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -641,7 +641,7 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.422000000000001</v>
+        <v>-7.644999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -655,7 +655,7 @@
         <v>4.42</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.01</v>
+        <v>-12.201</v>
       </c>
       <c r="D13" t="n">
         <v>-8.92</v>
@@ -706,7 +706,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.902</v>
+        <v>-12.439</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.866</v>
+        <v>-12.362</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.612</v>
+        <v>-12.32</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.440000000000001</v>
+        <v>-7.897</v>
       </c>
       <c r="E21" t="n">
-        <v>13.176</v>
+        <v>13.084</v>
       </c>
     </row>
     <row r="22">
